--- a/FORM-990-EZ-PART-01-CROSSWALK-v1.xlsx
+++ b/FORM-990-EZ-PART-01-CROSSWALK-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaga\OneDrive\Desktop\Nonprofit Open Data_RA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlec\Dropbox (Personal)\00 - URBAN\04-DATAPREP\comp-data\np-human-capital-project\00-r-packages\irs-efile-master-concordance-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2E07B-4F53-49AA-98FE-28BD4B5E91BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306308C-0FBC-433B-A6C5-D351952E14DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F9328C83-E13E-47F1-97D1-BED7589752C4}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="48615" windowHeight="18495" xr2:uid="{F9328C83-E13E-47F1-97D1-BED7589752C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,19 +756,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -789,9 +784,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -829,7 +824,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -935,7 +930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1077,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,13 +1083,13 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
@@ -1126,19 +1121,19 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1146,7 +1141,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" t="s">
@@ -1158,7 +1153,7 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1166,7 +1161,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>126</v>
       </c>
       <c r="C4" t="s">
@@ -1178,13 +1173,12 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>129</v>
       </c>
       <c r="C5" t="s">
@@ -1196,13 +1190,12 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
@@ -1214,7 +1207,7 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1222,7 +1215,7 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>132</v>
       </c>
       <c r="C7" t="s">
@@ -1234,7 +1227,7 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1242,7 +1235,7 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>137</v>
       </c>
       <c r="C8" t="s">
@@ -1254,13 +1247,12 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9" t="s">
@@ -1272,13 +1264,12 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>153</v>
       </c>
       <c r="C10" t="s">
@@ -1290,13 +1281,12 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>141</v>
       </c>
       <c r="C11" t="s">
@@ -1308,13 +1298,12 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
@@ -1326,7 +1315,7 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1334,7 +1323,7 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
@@ -1346,7 +1335,7 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1354,7 +1343,7 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>159</v>
       </c>
       <c r="C14" t="s">
@@ -1366,13 +1355,12 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>162</v>
       </c>
       <c r="C15" t="s">
@@ -1384,13 +1372,12 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>150</v>
       </c>
       <c r="C16" t="s">
@@ -1402,13 +1389,12 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>166</v>
       </c>
       <c r="C17" t="s">
@@ -1420,7 +1406,7 @@
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1428,7 +1414,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
@@ -1440,13 +1426,12 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -1458,7 +1443,7 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1466,7 +1451,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="s">
@@ -1478,13 +1463,12 @@
       <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
       <c r="C21" t="s">
@@ -1496,25 +1480,23 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>208</v>
       </c>
       <c r="C23" t="s">
@@ -1526,13 +1508,12 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>209</v>
       </c>
       <c r="C24" t="s">
@@ -1544,7 +1525,7 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1552,14 +1533,13 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1567,101 +1547,95 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4"/>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1669,19 +1643,19 @@
       <c r="A32" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1689,19 +1663,19 @@
       <c r="A33" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1709,19 +1683,19 @@
       <c r="A34" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
       <c r="C34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1729,37 +1703,35 @@
       <c r="A35" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
       <c r="C35" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>191</v>
       </c>
       <c r="C36" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>105</v>
       </c>
       <c r="E37" t="s">
@@ -1770,13 +1742,13 @@
       <c r="A38" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>59</v>
       </c>
       <c r="E38" t="s">
@@ -1787,13 +1759,13 @@
       <c r="A39" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>106</v>
       </c>
       <c r="E39" t="s">
@@ -1804,7 +1776,7 @@
       <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
       <c r="C40" t="s">
@@ -1821,7 +1793,7 @@
       <c r="A41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>112</v>
       </c>
       <c r="C41" t="s">
@@ -1838,7 +1810,7 @@
       <c r="A42" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>80</v>
       </c>
       <c r="C42" t="s">
@@ -1926,7 +1898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1920,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -1958,11 +1930,9 @@
       <c r="C51" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1972,14 +1942,14 @@
       <c r="C52" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -1989,14 +1959,14 @@
       <c r="C53" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2006,14 +1976,14 @@
       <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2023,10 +1993,8 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2036,14 +2004,14 @@
       <c r="C56" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2053,14 +2021,14 @@
       <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2070,14 +2038,14 @@
       <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2087,14 +2055,14 @@
       <c r="C59" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2104,10 +2072,8 @@
       <c r="C60" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2117,10 +2083,8 @@
       <c r="C61" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2130,10 +2094,8 @@
       <c r="C62" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2143,14 +2105,14 @@
       <c r="C63" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2160,10 +2122,10 @@
       <c r="C64" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2177,10 +2139,10 @@
       <c r="C65" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2251,7 +2213,7 @@
       <c r="E69" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2271,7 +2233,7 @@
       <c r="E70" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>123</v>
       </c>
     </row>
